--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H2">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I2">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J2">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N2">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O2">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P2">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q2">
-        <v>230.2180558901391</v>
+        <v>233.272978133402</v>
       </c>
       <c r="R2">
-        <v>230.2180558901391</v>
+        <v>933.091912533608</v>
       </c>
       <c r="S2">
-        <v>0.01475189243939876</v>
+        <v>0.01330215855969177</v>
       </c>
       <c r="T2">
-        <v>0.01475189243939876</v>
+        <v>0.006825493953955731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H3">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I3">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J3">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N3">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O3">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P3">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q3">
-        <v>15.42192685158351</v>
+        <v>16.71052524341133</v>
       </c>
       <c r="R3">
-        <v>15.42192685158351</v>
+        <v>100.263151460468</v>
       </c>
       <c r="S3">
-        <v>0.0009882048792532617</v>
+        <v>0.0009529010097194821</v>
       </c>
       <c r="T3">
-        <v>0.0009882048792532617</v>
+        <v>0.000733417067392408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H4">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I4">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J4">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N4">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O4">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P4">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q4">
-        <v>1005.637691299981</v>
+        <v>1181.885903135967</v>
       </c>
       <c r="R4">
-        <v>1005.637691299981</v>
+        <v>7091.315418815804</v>
       </c>
       <c r="S4">
-        <v>0.06443916398174243</v>
+        <v>0.06739586303042952</v>
       </c>
       <c r="T4">
-        <v>0.06443916398174243</v>
+        <v>0.05187241456770959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H5">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I5">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J5">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N5">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O5">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P5">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q5">
-        <v>1227.084529891363</v>
+        <v>1282.016709823996</v>
       </c>
       <c r="R5">
-        <v>1227.084529891363</v>
+        <v>7692.100258943979</v>
       </c>
       <c r="S5">
-        <v>0.0786290151266234</v>
+        <v>0.07310572226029841</v>
       </c>
       <c r="T5">
-        <v>0.0786290151266234</v>
+        <v>0.05626710842245395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H6">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I6">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J6">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N6">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O6">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P6">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q6">
-        <v>248.7287538495526</v>
+        <v>266.979550490425</v>
       </c>
       <c r="R6">
-        <v>248.7287538495526</v>
+        <v>1601.87730294255</v>
       </c>
       <c r="S6">
-        <v>0.01593801932340726</v>
+        <v>0.01522424217856868</v>
       </c>
       <c r="T6">
-        <v>0.01593801932340726</v>
+        <v>0.0117176064858664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.6117507239938</v>
+        <v>30.003349</v>
       </c>
       <c r="H7">
-        <v>29.6117507239938</v>
+        <v>60.006698</v>
       </c>
       <c r="I7">
-        <v>0.184183155170434</v>
+        <v>0.1788086146751209</v>
       </c>
       <c r="J7">
-        <v>0.184183155170434</v>
+        <v>0.1319456513375379</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N7">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O7">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P7">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q7">
-        <v>147.2716424897917</v>
+        <v>154.807229718085</v>
       </c>
       <c r="R7">
-        <v>147.2716424897917</v>
+        <v>619.22891887234</v>
       </c>
       <c r="S7">
-        <v>0.009436859420008905</v>
+        <v>0.008827727636412984</v>
       </c>
       <c r="T7">
-        <v>0.009436859420008905</v>
+        <v>0.004529610840159832</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H8">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I8">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J8">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N8">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O8">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P8">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q8">
-        <v>480.6822728651744</v>
+        <v>510.3355786928114</v>
       </c>
       <c r="R8">
-        <v>480.6822728651744</v>
+        <v>3062.013472156868</v>
       </c>
       <c r="S8">
-        <v>0.03080111661709374</v>
+        <v>0.02910137659639965</v>
       </c>
       <c r="T8">
-        <v>0.03080111661709374</v>
+        <v>0.02239838772623049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H9">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I9">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J9">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N9">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O9">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P9">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q9">
-        <v>32.20011055308867</v>
+        <v>36.55792299046423</v>
       </c>
       <c r="R9">
-        <v>32.20011055308867</v>
+        <v>329.0213069141781</v>
       </c>
       <c r="S9">
-        <v>0.002063315866252431</v>
+        <v>0.002084679040510452</v>
       </c>
       <c r="T9">
-        <v>0.002063315866252431</v>
+        <v>0.002406764983063176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H10">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I10">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J10">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N10">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O10">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P10">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q10">
-        <v>2099.714591298773</v>
+        <v>2585.633497510548</v>
       </c>
       <c r="R10">
-        <v>2099.714591298773</v>
+        <v>23270.70147759494</v>
       </c>
       <c r="S10">
-        <v>0.134545327839346</v>
+        <v>0.1474431673842072</v>
       </c>
       <c r="T10">
-        <v>0.134545327839346</v>
+        <v>0.1702233511041304</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H11">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I11">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J11">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N11">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O11">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P11">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q11">
-        <v>2562.083058799467</v>
+        <v>2804.691502363946</v>
       </c>
       <c r="R11">
-        <v>2562.083058799467</v>
+        <v>25242.22352127552</v>
       </c>
       <c r="S11">
-        <v>0.1641729340388996</v>
+        <v>0.1599347312920647</v>
       </c>
       <c r="T11">
-        <v>0.1641729340388996</v>
+        <v>0.1846448797965116</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H12">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I12">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J12">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N12">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O12">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P12">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q12">
-        <v>519.3315627006236</v>
+        <v>584.0760661132417</v>
       </c>
       <c r="R12">
-        <v>519.3315627006236</v>
+        <v>5256.684595019176</v>
       </c>
       <c r="S12">
-        <v>0.03327768242904627</v>
+        <v>0.03330635423154849</v>
       </c>
       <c r="T12">
-        <v>0.03327768242904627</v>
+        <v>0.03845223438249799</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>61.8276598092669</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H13">
-        <v>61.8276598092669</v>
+        <v>196.916633</v>
       </c>
       <c r="I13">
-        <v>0.3845640052362004</v>
+        <v>0.3911828904302115</v>
       </c>
       <c r="J13">
-        <v>0.3845640052362004</v>
+        <v>0.4329898872352535</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N13">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O13">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P13">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q13">
-        <v>307.4948555484377</v>
+        <v>338.6746197359817</v>
       </c>
       <c r="R13">
-        <v>307.4948555484377</v>
+        <v>2032.04771841589</v>
       </c>
       <c r="S13">
-        <v>0.01970362844556237</v>
+        <v>0.019312581885481</v>
       </c>
       <c r="T13">
-        <v>0.01970362844556237</v>
+        <v>0.01486426924281978</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H14">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I14">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J14">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N14">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O14">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P14">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q14">
-        <v>98.82683884954436</v>
+        <v>104.4311289364013</v>
       </c>
       <c r="R14">
-        <v>98.82683884954436</v>
+        <v>626.5867736184081</v>
       </c>
       <c r="S14">
-        <v>0.006332617531658682</v>
+        <v>0.005955080810453777</v>
       </c>
       <c r="T14">
-        <v>0.006332617531658682</v>
+        <v>0.004583432968943488</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H15">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I15">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J15">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N15">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O15">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P15">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q15">
-        <v>6.620246504202134</v>
+        <v>7.480930840140889</v>
       </c>
       <c r="R15">
-        <v>6.620246504202134</v>
+        <v>67.32837756126801</v>
       </c>
       <c r="S15">
-        <v>0.000424211576171505</v>
+        <v>0.0004265926083934761</v>
       </c>
       <c r="T15">
-        <v>0.000424211576171505</v>
+        <v>0.0004925017865885013</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H16">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I16">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J16">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N16">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O16">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P16">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q16">
-        <v>431.6950452685497</v>
+        <v>529.1040570842449</v>
       </c>
       <c r="R16">
-        <v>431.6950452685497</v>
+        <v>4761.936513758204</v>
       </c>
       <c r="S16">
-        <v>0.02766211733393322</v>
+        <v>0.03017163032867816</v>
       </c>
       <c r="T16">
-        <v>0.02766211733393322</v>
+        <v>0.03483319107924106</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H17">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I17">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J17">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N17">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O17">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P17">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q17">
-        <v>526.7566204633948</v>
+        <v>573.9303943111976</v>
       </c>
       <c r="R17">
-        <v>526.7566204633948</v>
+        <v>5165.373548800779</v>
       </c>
       <c r="S17">
-        <v>0.03375346463061691</v>
+        <v>0.03272780743163494</v>
       </c>
       <c r="T17">
-        <v>0.03375346463061691</v>
+        <v>0.03778430126088218</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H18">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I18">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J18">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N18">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O18">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P18">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q18">
-        <v>106.7730173417323</v>
+        <v>119.5208124136167</v>
       </c>
       <c r="R18">
-        <v>106.7730173417323</v>
+        <v>1075.68731172255</v>
       </c>
       <c r="S18">
-        <v>0.00684179206172664</v>
+        <v>0.006815554937528582</v>
       </c>
       <c r="T18">
-        <v>0.00684179206172664</v>
+        <v>0.007868568084116484</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.711582093498</v>
+        <v>13.43183266666667</v>
       </c>
       <c r="H19">
-        <v>12.711582093498</v>
+        <v>40.295498</v>
       </c>
       <c r="I19">
-        <v>0.07906521026098527</v>
+        <v>0.0800486436255733</v>
       </c>
       <c r="J19">
-        <v>0.07906521026098527</v>
+        <v>0.08860370436614352</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N19">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O19">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P19">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q19">
-        <v>63.22002339552275</v>
+        <v>69.30375689605667</v>
       </c>
       <c r="R19">
-        <v>63.22002339552275</v>
+        <v>415.82254137634</v>
       </c>
       <c r="S19">
-        <v>0.004051007126878319</v>
+        <v>0.00395197750888436</v>
       </c>
       <c r="T19">
-        <v>0.004051007126878319</v>
+        <v>0.003041709186371808</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H20">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I20">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J20">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N20">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O20">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P20">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q20">
-        <v>126.5021587277616</v>
+        <v>127.7229506676573</v>
       </c>
       <c r="R20">
-        <v>126.5021587277616</v>
+        <v>766.337704005944</v>
       </c>
       <c r="S20">
-        <v>0.008105994257002242</v>
+        <v>0.007283273678279463</v>
       </c>
       <c r="T20">
-        <v>0.008105994257002242</v>
+        <v>0.005605700033535005</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H21">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I21">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J21">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N21">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O21">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P21">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q21">
-        <v>8.474170416059488</v>
+        <v>9.149442032991557</v>
       </c>
       <c r="R21">
-        <v>8.474170416059488</v>
+        <v>82.34497829692401</v>
       </c>
       <c r="S21">
-        <v>0.000543007150362263</v>
+        <v>0.0005217377924757381</v>
       </c>
       <c r="T21">
-        <v>0.000543007150362263</v>
+        <v>0.0006023470399375335</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H22">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I22">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J22">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N22">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O22">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P22">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q22">
-        <v>552.5862789326899</v>
+        <v>647.1129065566636</v>
       </c>
       <c r="R22">
-        <v>552.5862789326899</v>
+        <v>5824.016159009972</v>
       </c>
       <c r="S22">
-        <v>0.03540857522570975</v>
+        <v>0.0369009670897976</v>
       </c>
       <c r="T22">
-        <v>0.03540857522570975</v>
+        <v>0.04260222015334558</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H23">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I23">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J23">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N23">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O23">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P23">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q23">
-        <v>674.2687552134213</v>
+        <v>701.9370965904283</v>
       </c>
       <c r="R23">
-        <v>674.2687552134213</v>
+        <v>6317.433869313854</v>
       </c>
       <c r="S23">
-        <v>0.04320573429263214</v>
+        <v>0.04002726176212247</v>
       </c>
       <c r="T23">
-        <v>0.04320573429263214</v>
+        <v>0.04621153189768301</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H24">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I24">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J24">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N24">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O24">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P24">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q24">
-        <v>136.6735731390658</v>
+        <v>146.1781652955167</v>
       </c>
       <c r="R24">
-        <v>136.6735731390658</v>
+        <v>1315.60348765965</v>
       </c>
       <c r="S24">
-        <v>0.008757757259569307</v>
+        <v>0.008335663857362001</v>
       </c>
       <c r="T24">
-        <v>0.008757757259569307</v>
+        <v>0.009623536042062295</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.2713144970747</v>
+        <v>16.42760466666667</v>
       </c>
       <c r="H25">
-        <v>16.2713144970747</v>
+        <v>49.282814</v>
       </c>
       <c r="I25">
-        <v>0.1012065132783018</v>
+        <v>0.09790231193448497</v>
       </c>
       <c r="J25">
-        <v>0.1012065132783018</v>
+        <v>0.108365452686244</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N25">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O25">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P25">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q25">
-        <v>80.92406402403202</v>
+        <v>84.76093683243667</v>
       </c>
       <c r="R25">
-        <v>80.92406402403202</v>
+        <v>508.5656209946201</v>
       </c>
       <c r="S25">
-        <v>0.005185445093026139</v>
+        <v>0.004833407754447687</v>
       </c>
       <c r="T25">
-        <v>0.005185445093026139</v>
+        <v>0.003720117519680565</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H26">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I26">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J26">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N26">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O26">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P26">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q26">
-        <v>171.1402662455498</v>
+        <v>184.2135298429947</v>
       </c>
       <c r="R26">
-        <v>171.1402662455498</v>
+        <v>1105.281179057968</v>
       </c>
       <c r="S26">
-        <v>0.01096631100433402</v>
+        <v>0.0105045925268322</v>
       </c>
       <c r="T26">
-        <v>0.01096631100433402</v>
+        <v>0.008085044896163431</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H27">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I27">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J27">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N27">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O27">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P27">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q27">
-        <v>11.46440342046362</v>
+        <v>13.19614841483645</v>
       </c>
       <c r="R27">
-        <v>11.46440342046362</v>
+        <v>118.765335733528</v>
       </c>
       <c r="S27">
-        <v>0.0007346150391490581</v>
+        <v>0.0007524971816109578</v>
       </c>
       <c r="T27">
-        <v>0.0007346150391490581</v>
+        <v>0.0008687590901818267</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H28">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I28">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J28">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N28">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O28">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P28">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q28">
-        <v>747.5743011128892</v>
+        <v>933.3244503092204</v>
       </c>
       <c r="R28">
-        <v>747.5743011128892</v>
+        <v>8399.920052782983</v>
       </c>
       <c r="S28">
-        <v>0.047903000647954</v>
+        <v>0.05322189447313741</v>
       </c>
       <c r="T28">
-        <v>0.047903000647954</v>
+        <v>0.06144475454546041</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H29">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I29">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J29">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N29">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O29">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P29">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q29">
-        <v>912.1941905878035</v>
+        <v>1012.39682934611</v>
       </c>
       <c r="R29">
-        <v>912.1941905878035</v>
+        <v>9111.571464114988</v>
       </c>
       <c r="S29">
-        <v>0.05845149952016459</v>
+        <v>0.05773091790164286</v>
       </c>
       <c r="T29">
-        <v>0.05845149952016459</v>
+        <v>0.06665042864907741</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H30">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I30">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J30">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N30">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O30">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P30">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q30">
-        <v>184.9008106342868</v>
+        <v>210.8313006730333</v>
       </c>
       <c r="R30">
-        <v>184.9008106342868</v>
+        <v>1897.4817060573</v>
       </c>
       <c r="S30">
-        <v>0.01184805796351731</v>
+        <v>0.01202244431969708</v>
       </c>
       <c r="T30">
-        <v>0.01184805796351731</v>
+        <v>0.01387992944582427</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.012882018774</v>
+        <v>23.69336933333333</v>
       </c>
       <c r="H31">
-        <v>22.012882018774</v>
+        <v>71.080108</v>
       </c>
       <c r="I31">
-        <v>0.1369186882060002</v>
+        <v>0.1412035218961498</v>
       </c>
       <c r="J31">
-        <v>0.1369186882060002</v>
+        <v>0.1562944047879878</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N31">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O31">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P31">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q31">
-        <v>109.4792847966272</v>
+        <v>122.2498484812733</v>
       </c>
       <c r="R31">
-        <v>109.4792847966272</v>
+        <v>733.49909088764</v>
       </c>
       <c r="S31">
-        <v>0.00701520403088125</v>
+        <v>0.006971175493229324</v>
       </c>
       <c r="T31">
-        <v>0.00701520403088125</v>
+        <v>0.005365488161280455</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H32">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I32">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J32">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>7.77455065173158</v>
+        <v>7.774898</v>
       </c>
       <c r="N32">
-        <v>7.77455065173158</v>
+        <v>15.549796</v>
       </c>
       <c r="O32">
-        <v>0.08009360261934967</v>
+        <v>0.07439327564760004</v>
       </c>
       <c r="P32">
-        <v>0.08009360261934967</v>
+        <v>0.05172958627105516</v>
       </c>
       <c r="Q32">
-        <v>142.5712919566116</v>
+        <v>144.619692026055</v>
       </c>
       <c r="R32">
-        <v>142.5712919566116</v>
+        <v>578.4787681042201</v>
       </c>
       <c r="S32">
-        <v>0.009135670769862228</v>
+        <v>0.008246793475943176</v>
       </c>
       <c r="T32">
-        <v>0.009135670769862228</v>
+        <v>0.00423152669222701</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H33">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I33">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J33">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.520804291354764</v>
+        <v>0.5569553333333334</v>
       </c>
       <c r="N33">
-        <v>0.520804291354764</v>
+        <v>1.670866</v>
       </c>
       <c r="O33">
-        <v>0.005365337988367207</v>
+        <v>0.005329167229726696</v>
       </c>
       <c r="P33">
-        <v>0.005365337988367207</v>
+        <v>0.005558478509581273</v>
       </c>
       <c r="Q33">
-        <v>9.550615077471857</v>
+        <v>10.359841219645</v>
       </c>
       <c r="R33">
-        <v>9.550615077471857</v>
+        <v>62.15904731787001</v>
       </c>
       <c r="S33">
-        <v>0.0006119834771786881</v>
+        <v>0.0005907595970165899</v>
       </c>
       <c r="T33">
-        <v>0.0006119834771786881</v>
+        <v>0.0004546885424178282</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H34">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I34">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J34">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.9607644503482</v>
+        <v>39.39179933333333</v>
       </c>
       <c r="N34">
-        <v>33.9607644503482</v>
+        <v>118.175398</v>
       </c>
       <c r="O34">
-        <v>0.3498645895283616</v>
+        <v>0.3769161969789975</v>
       </c>
       <c r="P34">
-        <v>0.3498645895283616</v>
+        <v>0.3931347038866155</v>
       </c>
       <c r="Q34">
-        <v>622.7794094365978</v>
+        <v>732.720852149935</v>
       </c>
       <c r="R34">
-        <v>622.7794094365978</v>
+        <v>4396.32511289961</v>
       </c>
       <c r="S34">
-        <v>0.03990640449967629</v>
+        <v>0.04178267467274761</v>
       </c>
       <c r="T34">
-        <v>0.03990640449967629</v>
+        <v>0.03215877243672846</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H35">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I35">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J35">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>41.4391077828803</v>
+        <v>42.72912033333333</v>
       </c>
       <c r="N35">
-        <v>41.4391077828803</v>
+        <v>128.187361</v>
       </c>
       <c r="O35">
-        <v>0.4269066574186113</v>
+        <v>0.4088489941780765</v>
       </c>
       <c r="P35">
-        <v>0.4269066574186113</v>
+        <v>0.4264415526549925</v>
       </c>
       <c r="Q35">
-        <v>759.9187912961456</v>
+        <v>794.7978511294825</v>
       </c>
       <c r="R35">
-        <v>759.9187912961456</v>
+        <v>4768.787106776896</v>
       </c>
       <c r="S35">
-        <v>0.04869400980967464</v>
+        <v>0.0453225535303131</v>
       </c>
       <c r="T35">
-        <v>0.04869400980967464</v>
+        <v>0.0348833026283843</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H36">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I36">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J36">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.39966390936868</v>
+        <v>8.898325</v>
       </c>
       <c r="N36">
-        <v>8.39966390936868</v>
+        <v>26.694975</v>
       </c>
       <c r="O36">
-        <v>0.08653353401758704</v>
+        <v>0.08514266611946943</v>
       </c>
       <c r="P36">
-        <v>0.08653353401758704</v>
+        <v>0.08880631053077227</v>
       </c>
       <c r="Q36">
-        <v>154.0347460844303</v>
+        <v>165.5163863304375</v>
       </c>
       <c r="R36">
-        <v>154.0347460844303</v>
+        <v>993.098317982625</v>
       </c>
       <c r="S36">
-        <v>0.009870224980320251</v>
+        <v>0.009438406594764595</v>
       </c>
       <c r="T36">
-        <v>0.009870224980320251</v>
+        <v>0.007264436090404835</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>18.3382034979549</v>
+        <v>18.6008475</v>
       </c>
       <c r="H37">
-        <v>18.3382034979549</v>
+        <v>37.201695</v>
       </c>
       <c r="I37">
-        <v>0.1140624278480783</v>
+        <v>0.1108540174384595</v>
       </c>
       <c r="J37">
-        <v>0.1140624278480783</v>
+        <v>0.08180089958683325</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.9734189600097</v>
+        <v>5.159665</v>
       </c>
       <c r="N37">
-        <v>4.9734189600097</v>
+        <v>10.31933</v>
       </c>
       <c r="O37">
-        <v>0.05123627842772321</v>
+        <v>0.04936969984612972</v>
       </c>
       <c r="P37">
-        <v>0.05123627842772321</v>
+        <v>0.03432936814698325</v>
       </c>
       <c r="Q37">
-        <v>91.2035689692451</v>
+        <v>95.97414181608751</v>
       </c>
       <c r="R37">
-        <v>91.2035689692451</v>
+        <v>383.89656726435</v>
       </c>
       <c r="S37">
-        <v>0.00584413431136623</v>
+        <v>0.005472829567674374</v>
       </c>
       <c r="T37">
-        <v>0.00584413431136623</v>
+        <v>0.002808173196670809</v>
       </c>
     </row>
   </sheetData>
